--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G873"/>
+  <dimension ref="A1:G805"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20386,10 +20386,8 @@
       <c r="D735" t="inlineStr"/>
       <c r="E735" t="inlineStr"/>
       <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G735" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -20419,10 +20417,8 @@
         </is>
       </c>
       <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G736" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="737">
@@ -20440,10 +20436,8 @@
       <c r="D737" t="inlineStr"/>
       <c r="E737" t="inlineStr"/>
       <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G737" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="738">
@@ -20477,10 +20471,8 @@
           <t>220.0K</t>
         </is>
       </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G738" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="739">
@@ -20514,10 +20506,8 @@
           <t>18</t>
         </is>
       </c>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G739" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="740">
@@ -20551,10 +20541,8 @@
           <t>1879.0K</t>
         </is>
       </c>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G740" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="741">
@@ -20584,10 +20572,8 @@
           <t>219.0K</t>
         </is>
       </c>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G741" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="742">
@@ -20613,10 +20599,8 @@
       </c>
       <c r="E742" t="inlineStr"/>
       <c r="F742" t="inlineStr"/>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G742" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="743">
@@ -20642,10 +20626,8 @@
       </c>
       <c r="E743" t="inlineStr"/>
       <c r="F743" t="inlineStr"/>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G743" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="744">
@@ -20671,10 +20653,8 @@
       </c>
       <c r="E744" t="inlineStr"/>
       <c r="F744" t="inlineStr"/>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G744" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="745">
@@ -20700,10 +20680,8 @@
       </c>
       <c r="E745" t="inlineStr"/>
       <c r="F745" t="inlineStr"/>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G745" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="746">
@@ -20729,10 +20707,8 @@
       </c>
       <c r="E746" t="inlineStr"/>
       <c r="F746" t="inlineStr"/>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G746" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="747">
@@ -20750,10 +20726,8 @@
       <c r="D747" t="inlineStr"/>
       <c r="E747" t="inlineStr"/>
       <c r="F747" t="inlineStr"/>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G747" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="748">
@@ -20787,10 +20761,8 @@
           <t>0%</t>
         </is>
       </c>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G748" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="749">
@@ -20820,10 +20792,8 @@
         </is>
       </c>
       <c r="F749" t="inlineStr"/>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G749" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="750">
@@ -20849,10 +20819,8 @@
       </c>
       <c r="E750" t="inlineStr"/>
       <c r="F750" t="inlineStr"/>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G750" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="751">
@@ -20878,10 +20846,8 @@
       </c>
       <c r="E751" t="inlineStr"/>
       <c r="F751" t="inlineStr"/>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G751" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="752">
@@ -20911,10 +20877,8 @@
         </is>
       </c>
       <c r="F752" t="inlineStr"/>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G752" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="753">
@@ -20944,10 +20908,8 @@
         </is>
       </c>
       <c r="F753" t="inlineStr"/>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G753" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="754">
@@ -20973,10 +20935,8 @@
       </c>
       <c r="E754" t="inlineStr"/>
       <c r="F754" t="inlineStr"/>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G754" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="755">
@@ -21002,10 +20962,8 @@
       </c>
       <c r="E755" t="inlineStr"/>
       <c r="F755" t="inlineStr"/>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G755" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="756">
@@ -21031,10 +20989,8 @@
       </c>
       <c r="E756" t="inlineStr"/>
       <c r="F756" t="inlineStr"/>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G756" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="757">
@@ -21060,10 +21016,8 @@
       </c>
       <c r="E757" t="inlineStr"/>
       <c r="F757" t="inlineStr"/>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G757" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="758">
@@ -21089,10 +21043,8 @@
       </c>
       <c r="E758" t="inlineStr"/>
       <c r="F758" t="inlineStr"/>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G758" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="759">
@@ -21122,10 +21074,8 @@
         </is>
       </c>
       <c r="F759" t="inlineStr"/>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G759" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="760">
@@ -21151,10 +21101,8 @@
       </c>
       <c r="E760" t="inlineStr"/>
       <c r="F760" t="inlineStr"/>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G760" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="761">
@@ -21180,10 +21128,8 @@
       </c>
       <c r="E761" t="inlineStr"/>
       <c r="F761" t="inlineStr"/>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G761" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="762">
@@ -21209,10 +21155,8 @@
       </c>
       <c r="E762" t="inlineStr"/>
       <c r="F762" t="inlineStr"/>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G762" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="763">
@@ -21230,10 +21174,8 @@
       <c r="D763" t="inlineStr"/>
       <c r="E763" t="inlineStr"/>
       <c r="F763" t="inlineStr"/>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G763" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="764">
@@ -21259,40 +21201,66 @@
       </c>
       <c r="E764" t="inlineStr"/>
       <c r="F764" t="inlineStr"/>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G764" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>Friday February 21 2025</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
+        </is>
+      </c>
       <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr"/>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr"/>
-      <c r="G765" t="inlineStr"/>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
+      <c r="G765" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Durable Goods Orders Ex Transp MoMJAN</t>
         </is>
       </c>
       <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr"/>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr"/>
+      <c r="F766" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G766" t="inlineStr">
         <is>
           <t>2</t>
@@ -21302,47 +21270,59 @@
     <row r="767">
       <c r="A767" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/19</t>
-        </is>
-      </c>
-      <c r="C767" t="inlineStr">
-        <is>
-          <t>$6.78T</t>
-        </is>
-      </c>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
       <c r="D767" t="inlineStr">
         <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="G767" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="inlineStr">
         <is>
-          <t>03:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr"/>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>219K</t>
+        </is>
+      </c>
       <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr"/>
+      <c r="F768" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G768" t="inlineStr">
         <is>
           <t>2</t>
@@ -21352,218 +21332,210 @@
     <row r="769">
       <c r="A769" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>S&amp;P Global Composite PMI FlashFEB</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C769" t="inlineStr"/>
       <c r="D769" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>1869K</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
       <c r="F769" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>1874.0K</t>
         </is>
       </c>
       <c r="G769" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C770" t="inlineStr"/>
       <c r="D770" t="inlineStr">
         <is>
-          <t>51.2</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E770" t="inlineStr">
         <is>
-          <t>51.5</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="F770" t="inlineStr">
         <is>
-          <t>51.3</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G770" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>S&amp;P Global Services PMI FlashFEB</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C771" t="inlineStr"/>
       <c r="D771" t="inlineStr">
         <is>
-          <t>52.9</t>
-        </is>
-      </c>
-      <c r="E771" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr"/>
       <c r="F771" t="inlineStr">
         <is>
-          <t>52.7</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Existing Home SalesJAN</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C772" t="inlineStr"/>
       <c r="D772" t="inlineStr">
         <is>
-          <t>4.24M</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E772" t="inlineStr">
         <is>
-          <t>4.12M</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>4.16M</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G772" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Existing Home Sales MoMJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C773" t="inlineStr"/>
       <c r="D773" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>215.25K</t>
         </is>
       </c>
       <c r="E773" t="inlineStr"/>
       <c r="F773" t="inlineStr">
         <is>
-          <t>-1.7%</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G773" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalFEB</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C774" t="inlineStr"/>
       <c r="D774" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E774" t="inlineStr">
-        <is>
-          <t>67.8</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr"/>
       <c r="F774" t="inlineStr">
         <is>
-          <t>67.8</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G774" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C775" t="inlineStr"/>
       <c r="D775" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E775" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G775" t="inlineStr">
@@ -21575,28 +21547,28 @@
     <row r="776">
       <c r="A776" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalFEB</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C776" t="inlineStr"/>
       <c r="D776" t="inlineStr">
         <is>
-          <t>69.3</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F776" t="inlineStr">
         <is>
-          <t>67.3</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G776" t="inlineStr">
@@ -21613,28 +21585,24 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalFEB</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C777" t="inlineStr"/>
       <c r="D777" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E777" t="inlineStr">
-        <is>
-          <t>68.7</t>
-        </is>
-      </c>
+          <t>-5.5%</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr"/>
       <c r="F777" t="inlineStr">
         <is>
-          <t>68.7</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G777" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -21646,40 +21614,36 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalFEB</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C778" t="inlineStr"/>
       <c r="D778" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E778" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr"/>
       <c r="F778" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>6.0%</t>
         </is>
       </c>
       <c r="G778" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C779" t="inlineStr"/>
@@ -21688,50 +21652,58 @@
       <c r="F779" t="inlineStr"/>
       <c r="G779" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Fed Jefferson Speech</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C780" t="inlineStr"/>
       <c r="D780" t="inlineStr"/>
-      <c r="E780" t="inlineStr"/>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
       <c r="F780" t="inlineStr"/>
       <c r="G780" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/21</t>
+          <t>Kansas Fed Composite IndexFEB</t>
         </is>
       </c>
       <c r="C781" t="inlineStr"/>
       <c r="D781" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E781" t="inlineStr"/>
-      <c r="F781" t="inlineStr"/>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G781" t="inlineStr">
         <is>
           <t>3</t>
@@ -21741,22 +21713,26 @@
     <row r="782">
       <c r="A782" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/21</t>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C782" t="inlineStr"/>
       <c r="D782" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="E782" t="inlineStr"/>
-      <c r="F782" t="inlineStr"/>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G782" t="inlineStr">
         <is>
           <t>3</t>
@@ -21766,184 +21742,184 @@
     <row r="783">
       <c r="A783" t="inlineStr">
         <is>
-          <t>Sunday February 23 2025</t>
-        </is>
-      </c>
-      <c r="B783" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C783" t="inlineStr"/>
       <c r="D783" t="inlineStr"/>
       <c r="E783" t="inlineStr"/>
       <c r="F783" t="inlineStr"/>
-      <c r="G783" t="inlineStr"/>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Monday February 24 2025</t>
-        </is>
-      </c>
-      <c r="B784" t="inlineStr"/>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>8-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C784" t="inlineStr"/>
       <c r="D784" t="inlineStr"/>
       <c r="E784" t="inlineStr"/>
       <c r="F784" t="inlineStr"/>
-      <c r="G784" t="inlineStr"/>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="785">
       <c r="A785" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>Chicago Fed National Activity IndexJAN</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C785" t="inlineStr"/>
       <c r="D785" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>6.04%</t>
         </is>
       </c>
       <c r="E785" t="inlineStr"/>
-      <c r="F785" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
+      <c r="F785" t="inlineStr"/>
       <c r="G785" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexFEB</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C786" t="inlineStr"/>
       <c r="D786" t="inlineStr">
         <is>
-          <t>14.1</t>
+          <t>6.85%</t>
         </is>
       </c>
       <c r="E786" t="inlineStr"/>
-      <c r="F786" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
+      <c r="F786" t="inlineStr"/>
       <c r="G786" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>11:45 PM</t>
         </is>
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C787" t="inlineStr"/>
-      <c r="D787" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="D787" t="inlineStr"/>
       <c r="E787" t="inlineStr"/>
       <c r="F787" t="inlineStr"/>
       <c r="G787" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B788" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr"/>
       <c r="C788" t="inlineStr"/>
-      <c r="D788" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
+      <c r="D788" t="inlineStr"/>
       <c r="E788" t="inlineStr"/>
       <c r="F788" t="inlineStr"/>
-      <c r="G788" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>01:45 AM</t>
         </is>
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C789" t="inlineStr"/>
-      <c r="D789" t="inlineStr">
-        <is>
-          <t>4.211%</t>
-        </is>
-      </c>
+      <c r="D789" t="inlineStr"/>
       <c r="E789" t="inlineStr"/>
       <c r="F789" t="inlineStr"/>
       <c r="G789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="inlineStr">
         <is>
-          <t>Tuesday February 25 2025</t>
-        </is>
-      </c>
-      <c r="B790" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetFEB/26</t>
+        </is>
+      </c>
       <c r="C790" t="inlineStr"/>
-      <c r="D790" t="inlineStr"/>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>$6.78T</t>
+        </is>
+      </c>
       <c r="E790" t="inlineStr"/>
       <c r="F790" t="inlineStr"/>
-      <c r="G790" t="inlineStr"/>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="791">
       <c r="A791" t="inlineStr">
         <is>
-          <t>02:50 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Fed Logan Speech</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C791" t="inlineStr"/>
@@ -21959,198 +21935,202 @@
     <row r="792">
       <c r="A792" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/22</t>
+          <t>Core PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr"/>
       <c r="D792" t="inlineStr">
         <is>
-          <t>6.3%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E792" t="inlineStr"/>
-      <c r="F792" t="inlineStr"/>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G792" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYDEC</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C793" t="inlineStr"/>
       <c r="D793" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E793" t="inlineStr"/>
       <c r="F793" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G793" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>House Price IndexDEC</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C794" t="inlineStr"/>
       <c r="D794" t="inlineStr">
         <is>
-          <t>433.4</t>
-        </is>
-      </c>
-      <c r="E794" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F794" t="inlineStr">
         <is>
-          <t>434.3</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G794" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>House Price Index MoMDEC</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C795" t="inlineStr"/>
       <c r="D795" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E795" t="inlineStr"/>
       <c r="F795" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G795" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>House Price Index YoYDEC</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C796" t="inlineStr"/>
       <c r="D796" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
       <c r="F796" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G796" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMDEC</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C797" t="inlineStr"/>
       <c r="D797" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E797" t="inlineStr"/>
       <c r="F797" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G797" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceFEB</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C798" t="inlineStr"/>
       <c r="D798" t="inlineStr">
         <is>
-          <t>104.1</t>
-        </is>
-      </c>
-      <c r="E798" t="inlineStr">
-        <is>
-          <t>102.1</t>
-        </is>
-      </c>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr"/>
       <c r="F798" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G798" t="inlineStr">
@@ -22162,53 +22142,53 @@
     <row r="799">
       <c r="A799" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexFEB</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C799" t="inlineStr"/>
       <c r="D799" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E799" t="inlineStr"/>
       <c r="F799" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G799" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C800" t="inlineStr"/>
       <c r="D800" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E800" t="inlineStr"/>
       <c r="F800" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G800" t="inlineStr">
@@ -22220,55 +22200,47 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexFEB</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C801" t="inlineStr"/>
       <c r="D801" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
       <c r="F801" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>42</t>
         </is>
       </c>
       <c r="G801" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexFEB</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C802" t="inlineStr"/>
-      <c r="D802" t="inlineStr">
-        <is>
-          <t>7.4</t>
-        </is>
-      </c>
+      <c r="D802" t="inlineStr"/>
       <c r="E802" t="inlineStr"/>
-      <c r="F802" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
+      <c r="F802" t="inlineStr"/>
       <c r="G802" t="inlineStr">
         <is>
           <t>3</t>
@@ -22278,26 +22250,18 @@
     <row r="803">
       <c r="A803" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexFEB</t>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
         </is>
       </c>
       <c r="C803" t="inlineStr"/>
-      <c r="D803" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
+      <c r="D803" t="inlineStr"/>
       <c r="E803" t="inlineStr"/>
-      <c r="F803" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="F803" t="inlineStr"/>
       <c r="G803" t="inlineStr">
         <is>
           <t>3</t>
@@ -22307,1792 +22271,28 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B804" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
+          <t>Saturday March 01 2025</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr"/>
       <c r="C804" t="inlineStr"/>
       <c r="D804" t="inlineStr"/>
       <c r="E804" t="inlineStr"/>
       <c r="F804" t="inlineStr"/>
-      <c r="G804" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B805" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
+          <t>Monday March 03 2025</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr"/>
       <c r="C805" t="inlineStr"/>
-      <c r="D805" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
+      <c r="D805" t="inlineStr"/>
       <c r="E805" t="inlineStr"/>
       <c r="F805" t="inlineStr"/>
-      <c r="G805" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B806" t="inlineStr">
-        <is>
-          <t>Money SupplyJAN</t>
-        </is>
-      </c>
-      <c r="C806" t="inlineStr"/>
-      <c r="D806" t="inlineStr">
-        <is>
-          <t>$21.53T</t>
-        </is>
-      </c>
-      <c r="E806" t="inlineStr"/>
-      <c r="F806" t="inlineStr"/>
-      <c r="G806" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B807" t="inlineStr"/>
-      <c r="C807" t="inlineStr"/>
-      <c r="D807" t="inlineStr"/>
-      <c r="E807" t="inlineStr"/>
-      <c r="F807" t="inlineStr"/>
-      <c r="G807" t="inlineStr"/>
-    </row>
-    <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B808" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C808" t="inlineStr"/>
-      <c r="D808" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
-      <c r="E808" t="inlineStr"/>
-      <c r="F808" t="inlineStr"/>
-      <c r="G808" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B809" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
-        </is>
-      </c>
-      <c r="C809" t="inlineStr"/>
-      <c r="D809" t="inlineStr">
-        <is>
-          <t>6.93%</t>
-        </is>
-      </c>
-      <c r="E809" t="inlineStr"/>
-      <c r="F809" t="inlineStr"/>
-      <c r="G809" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B810" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
-        </is>
-      </c>
-      <c r="C810" t="inlineStr"/>
-      <c r="D810" t="inlineStr">
-        <is>
-          <t>-6.6%</t>
-        </is>
-      </c>
-      <c r="E810" t="inlineStr"/>
-      <c r="F810" t="inlineStr"/>
-      <c r="G810" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B811" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C811" t="inlineStr"/>
-      <c r="D811" t="inlineStr">
-        <is>
-          <t>214.9</t>
-        </is>
-      </c>
-      <c r="E811" t="inlineStr"/>
-      <c r="F811" t="inlineStr"/>
-      <c r="G811" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B812" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C812" t="inlineStr"/>
-      <c r="D812" t="inlineStr">
-        <is>
-          <t>593.6</t>
-        </is>
-      </c>
-      <c r="E812" t="inlineStr"/>
-      <c r="F812" t="inlineStr"/>
-      <c r="G812" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B813" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/21</t>
-        </is>
-      </c>
-      <c r="C813" t="inlineStr"/>
-      <c r="D813" t="inlineStr">
-        <is>
-          <t>144.0</t>
-        </is>
-      </c>
-      <c r="E813" t="inlineStr"/>
-      <c r="F813" t="inlineStr"/>
-      <c r="G813" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B814" t="inlineStr">
-        <is>
-          <t>New Home SalesJAN</t>
-        </is>
-      </c>
-      <c r="C814" t="inlineStr"/>
-      <c r="D814" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E814" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="F814" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
-      <c r="G814" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B815" t="inlineStr">
-        <is>
-          <t>New Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C815" t="inlineStr"/>
-      <c r="D815" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E815" t="inlineStr"/>
-      <c r="F815" t="inlineStr">
-        <is>
-          <t>-2.6%</t>
-        </is>
-      </c>
-      <c r="G815" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B816" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C816" t="inlineStr"/>
-      <c r="D816" t="inlineStr">
-        <is>
-          <t>4.633M</t>
-        </is>
-      </c>
-      <c r="E816" t="inlineStr"/>
-      <c r="F816" t="inlineStr"/>
-      <c r="G816" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B817" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C817" t="inlineStr"/>
-      <c r="D817" t="inlineStr">
-        <is>
-          <t>-0.151M</t>
-        </is>
-      </c>
-      <c r="E817" t="inlineStr"/>
-      <c r="F817" t="inlineStr"/>
-      <c r="G817" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B818" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C818" t="inlineStr"/>
-      <c r="D818" t="inlineStr">
-        <is>
-          <t>-0.961M</t>
-        </is>
-      </c>
-      <c r="E818" t="inlineStr"/>
-      <c r="F818" t="inlineStr"/>
-      <c r="G818" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B819" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C819" t="inlineStr"/>
-      <c r="D819" t="inlineStr">
-        <is>
-          <t>1.472M</t>
-        </is>
-      </c>
-      <c r="E819" t="inlineStr"/>
-      <c r="F819" t="inlineStr"/>
-      <c r="G819" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B820" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C820" t="inlineStr"/>
-      <c r="D820" t="inlineStr"/>
-      <c r="E820" t="inlineStr"/>
-      <c r="F820" t="inlineStr"/>
-      <c r="G820" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B821" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C821" t="inlineStr"/>
-      <c r="D821" t="inlineStr"/>
-      <c r="E821" t="inlineStr"/>
-      <c r="F821" t="inlineStr"/>
-      <c r="G821" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B822" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C822" t="inlineStr"/>
-      <c r="D822" t="inlineStr"/>
-      <c r="E822" t="inlineStr"/>
-      <c r="F822" t="inlineStr"/>
-      <c r="G822" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B823" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C823" t="inlineStr"/>
-      <c r="D823" t="inlineStr">
-        <is>
-          <t>-0.343M</t>
-        </is>
-      </c>
-      <c r="E823" t="inlineStr"/>
-      <c r="F823" t="inlineStr"/>
-      <c r="G823" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B824" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C824" t="inlineStr"/>
-      <c r="D824" t="inlineStr"/>
-      <c r="E824" t="inlineStr"/>
-      <c r="F824" t="inlineStr"/>
-      <c r="G824" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B825" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C825" t="inlineStr"/>
-      <c r="D825" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
-      <c r="E825" t="inlineStr"/>
-      <c r="F825" t="inlineStr"/>
-      <c r="G825" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B826" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C826" t="inlineStr"/>
-      <c r="D826" t="inlineStr"/>
-      <c r="E826" t="inlineStr"/>
-      <c r="F826" t="inlineStr"/>
-      <c r="G826" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B827" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C827" t="inlineStr"/>
-      <c r="D827" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
-      <c r="E827" t="inlineStr"/>
-      <c r="F827" t="inlineStr"/>
-      <c r="G827" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B828" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr">
-        <is>
-          <t>4.457%</t>
-        </is>
-      </c>
-      <c r="E828" t="inlineStr"/>
-      <c r="F828" t="inlineStr"/>
-      <c r="G828" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="829">
-      <c r="A829" t="inlineStr"/>
-      <c r="B829" t="inlineStr">
-        <is>
-          <t>Building Permits FinalJAN</t>
-        </is>
-      </c>
-      <c r="C829" t="inlineStr"/>
-      <c r="D829" t="inlineStr">
-        <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E829" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F829" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="G829" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="830">
-      <c r="A830" t="inlineStr"/>
-      <c r="B830" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalJAN</t>
-        </is>
-      </c>
-      <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="E830" t="inlineStr"/>
-      <c r="F830" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G830" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr"/>
-      <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr"/>
-      <c r="E831" t="inlineStr"/>
-      <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B832" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
-      <c r="C832" t="inlineStr"/>
-      <c r="D832" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E832" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F832" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G832" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B833" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C833" t="inlineStr"/>
-      <c r="D833" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="E833" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F833" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G833" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B834" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
-        </is>
-      </c>
-      <c r="C834" t="inlineStr"/>
-      <c r="D834" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E834" t="inlineStr"/>
-      <c r="F834" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G834" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B835" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C835" t="inlineStr"/>
-      <c r="D835" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E835" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="F835" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G835" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B836" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
-        </is>
-      </c>
-      <c r="C836" t="inlineStr"/>
-      <c r="D836" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E836" t="inlineStr"/>
-      <c r="F836" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G836" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B837" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
-        </is>
-      </c>
-      <c r="C837" t="inlineStr"/>
-      <c r="D837" t="inlineStr">
-        <is>
-          <t>1869K</t>
-        </is>
-      </c>
-      <c r="E837" t="inlineStr"/>
-      <c r="F837" t="inlineStr">
-        <is>
-          <t>1874.0K</t>
-        </is>
-      </c>
-      <c r="G837" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B838" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G838" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B839" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
-        </is>
-      </c>
-      <c r="C839" t="inlineStr"/>
-      <c r="D839" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G839" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B840" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C840" t="inlineStr"/>
-      <c r="D840" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E840" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="F840" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="G840" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B841" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
-        </is>
-      </c>
-      <c r="C841" t="inlineStr"/>
-      <c r="D841" t="inlineStr">
-        <is>
-          <t>215.25K</t>
-        </is>
-      </c>
-      <c r="E841" t="inlineStr"/>
-      <c r="F841" t="inlineStr">
-        <is>
-          <t>220.0K</t>
-        </is>
-      </c>
-      <c r="G841" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B842" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
-        </is>
-      </c>
-      <c r="C842" t="inlineStr"/>
-      <c r="D842" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E842" t="inlineStr"/>
-      <c r="F842" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G842" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B843" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr">
-        <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E843" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="F843" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G843" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B844" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
-        </is>
-      </c>
-      <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="E844" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F844" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G844" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B845" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E845" t="inlineStr"/>
-      <c r="F845" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G845" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B846" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
-      <c r="E846" t="inlineStr"/>
-      <c r="F846" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
-      <c r="G846" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B847" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
-        </is>
-      </c>
-      <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr"/>
-      <c r="E847" t="inlineStr"/>
-      <c r="F847" t="inlineStr"/>
-      <c r="G847" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B848" t="inlineStr">
-        <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
-        </is>
-      </c>
-      <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
-      <c r="E848" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F848" t="inlineStr"/>
-      <c r="G848" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B849" t="inlineStr">
-        <is>
-          <t>Kansas Fed Composite IndexFEB</t>
-        </is>
-      </c>
-      <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E849" t="inlineStr"/>
-      <c r="F849" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G849" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B850" t="inlineStr">
-        <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
-        </is>
-      </c>
-      <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E850" t="inlineStr"/>
-      <c r="F850" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
-      <c r="G850" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B851" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr"/>
-      <c r="E851" t="inlineStr"/>
-      <c r="F851" t="inlineStr"/>
-      <c r="G851" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B852" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr"/>
-      <c r="E852" t="inlineStr"/>
-      <c r="F852" t="inlineStr"/>
-      <c r="G852" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B853" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C853" t="inlineStr"/>
-      <c r="D853" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr"/>
-      <c r="G853" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/27</t>
-        </is>
-      </c>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>11:45 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Fed Hammack Speech</t>
-        </is>
-      </c>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr"/>
-      <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr"/>
-      <c r="E856" t="inlineStr"/>
-      <c r="F856" t="inlineStr"/>
-      <c r="G856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>01:45 AM</t>
-        </is>
-      </c>
-      <c r="B857" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
-      <c r="C857" t="inlineStr"/>
-      <c r="D857" t="inlineStr"/>
-      <c r="E857" t="inlineStr"/>
-      <c r="F857" t="inlineStr"/>
-      <c r="G857" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B858" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/26</t>
-        </is>
-      </c>
-      <c r="C858" t="inlineStr"/>
-      <c r="D858" t="inlineStr">
-        <is>
-          <t>$6.78T</t>
-        </is>
-      </c>
-      <c r="E858" t="inlineStr"/>
-      <c r="F858" t="inlineStr"/>
-      <c r="G858" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B859" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C859" t="inlineStr"/>
-      <c r="D859" t="inlineStr"/>
-      <c r="E859" t="inlineStr"/>
-      <c r="F859" t="inlineStr"/>
-      <c r="G859" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B860" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C860" t="inlineStr"/>
-      <c r="D860" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E860" t="inlineStr"/>
-      <c r="F860" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G860" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B861" t="inlineStr">
-        <is>
-          <t>Personal Income MoMJAN</t>
-        </is>
-      </c>
-      <c r="C861" t="inlineStr"/>
-      <c r="D861" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E861" t="inlineStr"/>
-      <c r="F861" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G861" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B862" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMJAN</t>
-        </is>
-      </c>
-      <c r="C862" t="inlineStr"/>
-      <c r="D862" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E862" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F862" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G862" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="863">
-      <c r="A863" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B863" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvJAN</t>
-        </is>
-      </c>
-      <c r="C863" t="inlineStr"/>
-      <c r="D863" t="inlineStr">
-        <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E863" t="inlineStr"/>
-      <c r="F863" t="inlineStr">
-        <is>
-          <t>$ -126.0B</t>
-        </is>
-      </c>
-      <c r="G863" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="864">
-      <c r="A864" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B864" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMJAN</t>
-        </is>
-      </c>
-      <c r="C864" t="inlineStr"/>
-      <c r="D864" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E864" t="inlineStr"/>
-      <c r="F864" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G864" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B865" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C865" t="inlineStr"/>
-      <c r="D865" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E865" t="inlineStr"/>
-      <c r="F865" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G865" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="866">
-      <c r="A866" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B866" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C866" t="inlineStr"/>
-      <c r="D866" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E866" t="inlineStr"/>
-      <c r="F866" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G866" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="867">
-      <c r="A867" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B867" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
-        </is>
-      </c>
-      <c r="C867" t="inlineStr"/>
-      <c r="D867" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E867" t="inlineStr"/>
-      <c r="F867" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G867" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B868" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYJAN</t>
-        </is>
-      </c>
-      <c r="C868" t="inlineStr"/>
-      <c r="D868" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E868" t="inlineStr"/>
-      <c r="F868" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="G868" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>08:15 PM</t>
-        </is>
-      </c>
-      <c r="B869" t="inlineStr">
-        <is>
-          <t>Chicago PMIFEB</t>
-        </is>
-      </c>
-      <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr">
-        <is>
-          <t>39.5</t>
-        </is>
-      </c>
-      <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="G869" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B870" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr"/>
-      <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr"/>
-      <c r="G870" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B871" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
-        </is>
-      </c>
-      <c r="C871" t="inlineStr"/>
-      <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr"/>
-      <c r="F871" t="inlineStr"/>
-      <c r="G871" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>Saturday March 01 2025</t>
-        </is>
-      </c>
-      <c r="B872" t="inlineStr"/>
-      <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr"/>
-      <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
-      <c r="G872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B873" t="inlineStr"/>
-      <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr"/>
-      <c r="G873" t="inlineStr"/>
+      <c r="G805" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G896"/>
+  <dimension ref="A1:G899"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22848,12 +22848,12 @@
     <row r="827">
       <c r="A827" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:15 PM</t>
         </is>
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C827" t="inlineStr"/>
@@ -22874,20 +22874,16 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C828" t="inlineStr"/>
-      <c r="D828" t="inlineStr">
-        <is>
-          <t>4.33%</t>
-        </is>
-      </c>
+      <c r="D828" t="inlineStr"/>
       <c r="E828" t="inlineStr"/>
       <c r="F828" t="inlineStr"/>
       <c r="G828" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -22899,13 +22895,13 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>Money SupplyJAN</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C829" t="inlineStr"/>
       <c r="D829" t="inlineStr">
         <is>
-          <t>$21.53T</t>
+          <t>4.33%</t>
         </is>
       </c>
       <c r="E829" t="inlineStr"/>
@@ -22919,56 +22915,56 @@
     <row r="830">
       <c r="A830" t="inlineStr">
         <is>
-          <t>Wednesday February 26 2025</t>
-        </is>
-      </c>
-      <c r="B830" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>Money SupplyJAN</t>
+        </is>
+      </c>
       <c r="C830" t="inlineStr"/>
-      <c r="D830" t="inlineStr"/>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>$21.53T</t>
+        </is>
+      </c>
       <c r="E830" t="inlineStr"/>
       <c r="F830" t="inlineStr"/>
-      <c r="G830" t="inlineStr"/>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="831">
       <c r="A831" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B831" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeFEB/21</t>
-        </is>
-      </c>
+          <t>Wednesday February 26 2025</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr"/>
       <c r="C831" t="inlineStr"/>
-      <c r="D831" t="inlineStr">
-        <is>
-          <t>3.34M</t>
-        </is>
-      </c>
+      <c r="D831" t="inlineStr"/>
       <c r="E831" t="inlineStr"/>
       <c r="F831" t="inlineStr"/>
-      <c r="G831" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/21</t>
+          <t>API Crude Oil Stock ChangeFEB/21</t>
         </is>
       </c>
       <c r="C832" t="inlineStr"/>
       <c r="D832" t="inlineStr">
         <is>
-          <t>6.93%</t>
+          <t>3.34M</t>
         </is>
       </c>
       <c r="E832" t="inlineStr"/>
@@ -22987,20 +22983,20 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/21</t>
+          <t>MBA 30-Year Mortgage RateFEB/21</t>
         </is>
       </c>
       <c r="C833" t="inlineStr"/>
       <c r="D833" t="inlineStr">
         <is>
-          <t>-6.6%</t>
+          <t>6.93%</t>
         </is>
       </c>
       <c r="E833" t="inlineStr"/>
       <c r="F833" t="inlineStr"/>
       <c r="G833" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23012,13 +23008,13 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexFEB/21</t>
+          <t>MBA Mortgage ApplicationsFEB/21</t>
         </is>
       </c>
       <c r="C834" t="inlineStr"/>
       <c r="D834" t="inlineStr">
         <is>
-          <t>214.9</t>
+          <t>-6.6%</t>
         </is>
       </c>
       <c r="E834" t="inlineStr"/>
@@ -23037,13 +23033,13 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexFEB/21</t>
+          <t>MBA Mortgage Market IndexFEB/21</t>
         </is>
       </c>
       <c r="C835" t="inlineStr"/>
       <c r="D835" t="inlineStr">
         <is>
-          <t>593.6</t>
+          <t>214.9</t>
         </is>
       </c>
       <c r="E835" t="inlineStr"/>
@@ -23062,13 +23058,13 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexFEB/21</t>
+          <t>MBA Mortgage Refinance IndexFEB/21</t>
         </is>
       </c>
       <c r="C836" t="inlineStr"/>
       <c r="D836" t="inlineStr">
         <is>
-          <t>144.0</t>
+          <t>593.6</t>
         </is>
       </c>
       <c r="E836" t="inlineStr"/>
@@ -23082,33 +23078,25 @@
     <row r="837">
       <c r="A837" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>05:30 PM</t>
         </is>
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>New Home SalesJAN</t>
+          <t>MBA Purchase IndexFEB/21</t>
         </is>
       </c>
       <c r="C837" t="inlineStr"/>
       <c r="D837" t="inlineStr">
         <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E837" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="F837" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr"/>
+      <c r="F837" t="inlineStr"/>
       <c r="G837" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23120,19 +23108,23 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>New Home Sales MoMJAN</t>
+          <t>New Home SalesJAN</t>
         </is>
       </c>
       <c r="C838" t="inlineStr"/>
       <c r="D838" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr"/>
+          <t>0.698M</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="F838" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.68M</t>
         </is>
       </c>
       <c r="G838" t="inlineStr">
@@ -23144,22 +23136,26 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
+          <t>New Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
-          <t>4.633M</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E839" t="inlineStr"/>
-      <c r="F839" t="inlineStr"/>
+      <c r="F839" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="G839" t="inlineStr">
         <is>
           <t>2</t>
@@ -23174,13 +23170,13 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr">
         <is>
-          <t>-0.151M</t>
+          <t>4.633M</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
@@ -23199,20 +23195,20 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
+          <t>EIA Gasoline Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr">
         <is>
-          <t>-0.961M</t>
+          <t>-0.151M</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
       <c r="F841" t="inlineStr"/>
       <c r="G841" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23224,13 +23220,13 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
+          <t>EIA Crude Oil Imports ChangeFEB/21</t>
         </is>
       </c>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>1.472M</t>
+          <t>-0.961M</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -23249,11 +23245,15 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C843" t="inlineStr"/>
-      <c r="D843" t="inlineStr"/>
+      <c r="D843" t="inlineStr">
+        <is>
+          <t>1.472M</t>
+        </is>
+      </c>
       <c r="E843" t="inlineStr"/>
       <c r="F843" t="inlineStr"/>
       <c r="G843" t="inlineStr">
@@ -23270,7 +23270,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
         </is>
       </c>
       <c r="C844" t="inlineStr"/>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
+          <t>EIA Distillate Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C845" t="inlineStr"/>
@@ -23312,15 +23312,11 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
+          <t>EIA Gasoline Production ChangeFEB/21</t>
         </is>
       </c>
       <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr">
-        <is>
-          <t>-0.343M</t>
-        </is>
-      </c>
+      <c r="D846" t="inlineStr"/>
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr">
@@ -23337,11 +23333,15 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C847" t="inlineStr"/>
-      <c r="D847" t="inlineStr"/>
+      <c r="D847" t="inlineStr">
+        <is>
+          <t>-0.343M</t>
+        </is>
+      </c>
       <c r="E847" t="inlineStr"/>
       <c r="F847" t="inlineStr"/>
       <c r="G847" t="inlineStr">
@@ -23353,20 +23353,16 @@
     <row r="848">
       <c r="A848" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
         </is>
       </c>
       <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr">
-        <is>
-          <t>4.215%</t>
-        </is>
-      </c>
+      <c r="D848" t="inlineStr"/>
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr">
@@ -23378,46 +23374,46 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C849" t="inlineStr"/>
-      <c r="D849" t="inlineStr"/>
+      <c r="D849" t="inlineStr">
+        <is>
+          <t>4.215%</t>
+        </is>
+      </c>
       <c r="E849" t="inlineStr"/>
       <c r="F849" t="inlineStr"/>
       <c r="G849" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
+      <c r="D850" t="inlineStr"/>
       <c r="E850" t="inlineStr"/>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23429,13 +23425,13 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C851" t="inlineStr"/>
       <c r="D851" t="inlineStr">
         <is>
-          <t>4.457%</t>
+          <t>0.098%</t>
         </is>
       </c>
       <c r="E851" t="inlineStr"/>
@@ -23447,28 +23443,24 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr"/>
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Building Permits FinalJAN</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E852" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F852" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>4.457%</t>
+        </is>
+      </c>
+      <c r="E852" t="inlineStr"/>
+      <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr">
         <is>
           <t>3</t>
@@ -23479,72 +23471,68 @@
       <c r="A853" t="inlineStr"/>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalJAN</t>
+          <t>Building Permits FinalJAN</t>
         </is>
       </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr">
         <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
+      <c r="F853" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr"/>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalJAN</t>
+        </is>
+      </c>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr">
+        <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="E853" t="inlineStr"/>
-      <c r="F853" t="inlineStr">
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G853" t="inlineStr">
+      <c r="G854" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B854" t="inlineStr"/>
-      <c r="C854" t="inlineStr"/>
-      <c r="D854" t="inlineStr"/>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr"/>
-      <c r="G854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 27 2025</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr"/>
       <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E855" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F855" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G855" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
@@ -23554,23 +23542,23 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders MoMJAN</t>
         </is>
       </c>
       <c r="C856" t="inlineStr"/>
       <c r="D856" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="G856" t="inlineStr">
@@ -23587,24 +23575,28 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
+          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E857" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23616,23 +23608,19 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders Ex Transp MoMJAN</t>
         </is>
       </c>
       <c r="C858" t="inlineStr"/>
       <c r="D858" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E858" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr"/>
       <c r="F858" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
@@ -23649,19 +23637,23 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr">
         <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E859" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -23678,24 +23670,24 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
-          <t>1869K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E860" t="inlineStr"/>
       <c r="F860" t="inlineStr">
         <is>
-          <t>1874.0K</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23707,23 +23699,19 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C861" t="inlineStr"/>
       <c r="D861" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E861" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>1869K</t>
+        </is>
+      </c>
+      <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1874.0K</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
@@ -23740,19 +23728,23 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C862" t="inlineStr"/>
       <c r="D862" t="inlineStr">
         <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E862" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F862" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -23769,23 +23761,19 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E863" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr"/>
       <c r="F863" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -23802,19 +23790,23 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C864" t="inlineStr"/>
       <c r="D864" t="inlineStr">
         <is>
-          <t>215.25K</t>
-        </is>
-      </c>
-      <c r="E864" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F864" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -23831,19 +23823,19 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C865" t="inlineStr"/>
       <c r="D865" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>215.25K</t>
         </is>
       </c>
       <c r="E865" t="inlineStr"/>
       <c r="F865" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -23860,23 +23852,19 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C866" t="inlineStr"/>
       <c r="D866" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E866" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E866" t="inlineStr"/>
       <c r="F866" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -23893,23 +23881,23 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C867" t="inlineStr"/>
       <c r="D867" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F867" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -23921,29 +23909,33 @@
     <row r="868">
       <c r="A868" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMJAN</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C868" t="inlineStr"/>
       <c r="D868" t="inlineStr">
         <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
-      <c r="E868" t="inlineStr"/>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23955,21 +23947,13 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYJAN</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr">
-        <is>
-          <t>-5.0%</t>
-        </is>
-      </c>
+      <c r="D869" t="inlineStr"/>
       <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="F869" t="inlineStr"/>
       <c r="G869" t="inlineStr">
         <is>
           <t>2</t>
@@ -23979,72 +23963,76 @@
     <row r="870">
       <c r="A870" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr"/>
+      <c r="D870" t="inlineStr">
+        <is>
+          <t>-5.5%</t>
+        </is>
+      </c>
       <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr"/>
+      <c r="F870" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="G870" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr"/>
-      <c r="D871" t="inlineStr"/>
-      <c r="E871" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
-      <c r="F871" t="inlineStr"/>
+      <c r="D871" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G871" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
+      <c r="D872" t="inlineStr"/>
       <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="F872" t="inlineStr"/>
       <c r="G872" t="inlineStr">
         <is>
           <t>3</t>
@@ -24054,26 +24042,22 @@
     <row r="873">
       <c r="A873" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
-      <c r="E873" t="inlineStr"/>
-      <c r="F873" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
+      <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr">
         <is>
           <t>3</t>
@@ -24083,18 +24067,26 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Kansas Fed Composite IndexFEB</t>
         </is>
       </c>
       <c r="C874" t="inlineStr"/>
-      <c r="D874" t="inlineStr"/>
+      <c r="D874" t="inlineStr">
+        <is>
+          <t>-5</t>
+        </is>
+      </c>
       <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr"/>
+      <c r="F874" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G874" t="inlineStr">
         <is>
           <t>3</t>
@@ -24104,18 +24096,26 @@
     <row r="875">
       <c r="A875" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C875" t="inlineStr"/>
-      <c r="D875" t="inlineStr"/>
+      <c r="D875" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E875" t="inlineStr"/>
-      <c r="F875" t="inlineStr"/>
+      <c r="F875" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G875" t="inlineStr">
         <is>
           <t>3</t>
@@ -24125,20 +24125,16 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/27</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C876" t="inlineStr"/>
-      <c r="D876" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
+      <c r="D876" t="inlineStr"/>
       <c r="E876" t="inlineStr"/>
       <c r="F876" t="inlineStr"/>
       <c r="G876" t="inlineStr">
@@ -24150,20 +24146,16 @@
     <row r="877">
       <c r="A877" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/27</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C877" t="inlineStr"/>
-      <c r="D877" t="inlineStr">
-        <is>
-          <t>6.85%</t>
-        </is>
-      </c>
+      <c r="D877" t="inlineStr"/>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr">
@@ -24175,12 +24167,12 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>10:15 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C878" t="inlineStr"/>
@@ -24196,171 +24188,151 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B879" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateFEB/27</t>
+        </is>
+      </c>
       <c r="C879" t="inlineStr"/>
-      <c r="D879" t="inlineStr"/>
+      <c r="D879" t="inlineStr">
+        <is>
+          <t>6.04%</t>
+        </is>
+      </c>
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
-      <c r="G879" t="inlineStr"/>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="880">
       <c r="A880" t="inlineStr">
         <is>
-          <t>01:45 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Fed Harker Speech</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C880" t="inlineStr"/>
-      <c r="D880" t="inlineStr"/>
+      <c r="D880" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
       <c r="E880" t="inlineStr"/>
       <c r="F880" t="inlineStr"/>
       <c r="G880" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>11:45 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/26</t>
+          <t>Fed Hammack Speech</t>
         </is>
       </c>
       <c r="C881" t="inlineStr"/>
-      <c r="D881" t="inlineStr">
-        <is>
-          <t>$6.78T</t>
-        </is>
-      </c>
+      <c r="D881" t="inlineStr"/>
       <c r="E881" t="inlineStr"/>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B882" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr"/>
       <c r="C882" t="inlineStr"/>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>01:45 AM</t>
         </is>
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C883" t="inlineStr"/>
-      <c r="D883" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr"/>
-      <c r="F883" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F883" t="inlineStr"/>
       <c r="G883" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C884" t="inlineStr"/>
       <c r="D884" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$6.78T</t>
         </is>
       </c>
       <c r="E884" t="inlineStr"/>
-      <c r="F884" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E885" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F885" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24372,24 +24344,24 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Core PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C886" t="inlineStr"/>
       <c r="D886" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E886" t="inlineStr"/>
       <c r="F886" t="inlineStr">
         <is>
-          <t>$ -126.0B</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G886" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24401,24 +24373,24 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr"/>
       <c r="D887" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E887" t="inlineStr"/>
       <c r="F887" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24430,24 +24402,28 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr"/>
       <c r="D888" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E888" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F888" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24459,19 +24435,19 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr"/>
       <c r="D889" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E889" t="inlineStr"/>
       <c r="F889" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
@@ -24488,19 +24464,19 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr"/>
       <c r="D890" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -24517,48 +24493,48 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C891" t="inlineStr"/>
       <c r="D891" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr"/>
       <c r="D892" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -24570,39 +24546,55 @@
     <row r="893">
       <c r="A893" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr"/>
-      <c r="D893" t="inlineStr"/>
+      <c r="D893" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="E893" t="inlineStr"/>
-      <c r="F893" t="inlineStr"/>
+      <c r="F893" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G893" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr"/>
-      <c r="D894" t="inlineStr"/>
+      <c r="D894" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="E894" t="inlineStr"/>
-      <c r="F894" t="inlineStr"/>
+      <c r="F894" t="inlineStr">
+        <is>
+          <t>2.7%</t>
+        </is>
+      </c>
       <c r="G894" t="inlineStr">
         <is>
           <t>3</t>
@@ -24612,28 +24604,99 @@
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>Saturday March 01 2025</t>
-        </is>
-      </c>
-      <c r="B895" t="inlineStr"/>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>Chicago PMIFEB</t>
+        </is>
+      </c>
       <c r="C895" t="inlineStr"/>
-      <c r="D895" t="inlineStr"/>
+      <c r="D895" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
       <c r="E895" t="inlineStr"/>
-      <c r="F895" t="inlineStr"/>
-      <c r="G895" t="inlineStr"/>
+      <c r="F895" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G895" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
-        </is>
-      </c>
-      <c r="B896" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
+        </is>
+      </c>
       <c r="C896" t="inlineStr"/>
       <c r="D896" t="inlineStr"/>
       <c r="E896" t="inlineStr"/>
       <c r="F896" t="inlineStr"/>
-      <c r="G896" t="inlineStr"/>
+      <c r="G896" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
+        </is>
+      </c>
+      <c r="C897" t="inlineStr"/>
+      <c r="D897" t="inlineStr"/>
+      <c r="E897" t="inlineStr"/>
+      <c r="F897" t="inlineStr"/>
+      <c r="G897" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>Saturday March 01 2025</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr"/>
+      <c r="C898" t="inlineStr"/>
+      <c r="D898" t="inlineStr"/>
+      <c r="E898" t="inlineStr"/>
+      <c r="F898" t="inlineStr"/>
+      <c r="G898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>Monday March 03 2025</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr"/>
+      <c r="C899" t="inlineStr"/>
+      <c r="D899" t="inlineStr"/>
+      <c r="E899" t="inlineStr"/>
+      <c r="F899" t="inlineStr"/>
+      <c r="G899" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G899"/>
+  <dimension ref="A1:G900"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23103,30 +23103,18 @@
     <row r="838">
       <c r="A838" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>New Home SalesJAN</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C838" t="inlineStr"/>
-      <c r="D838" t="inlineStr">
-        <is>
-          <t>0.698M</t>
-        </is>
-      </c>
-      <c r="E838" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
-      <c r="F838" t="inlineStr">
-        <is>
-          <t>0.68M</t>
-        </is>
-      </c>
+      <c r="D838" t="inlineStr"/>
+      <c r="E838" t="inlineStr"/>
+      <c r="F838" t="inlineStr"/>
       <c r="G838" t="inlineStr">
         <is>
           <t>2</t>
@@ -23141,19 +23129,23 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>New Home Sales MoMJAN</t>
+          <t>New Home SalesJAN</t>
         </is>
       </c>
       <c r="C839" t="inlineStr"/>
       <c r="D839" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="E839" t="inlineStr"/>
+          <t>0.698M</t>
+        </is>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>0.69M</t>
+        </is>
+      </c>
       <c r="F839" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>0.68M</t>
         </is>
       </c>
       <c r="G839" t="inlineStr">
@@ -23165,22 +23157,26 @@
     <row r="840">
       <c r="A840" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
+          <t>New Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr"/>
       <c r="D840" t="inlineStr">
         <is>
-          <t>4.633M</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="E840" t="inlineStr"/>
-      <c r="F840" t="inlineStr"/>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>-2.6%</t>
+        </is>
+      </c>
       <c r="G840" t="inlineStr">
         <is>
           <t>2</t>
@@ -23195,13 +23191,13 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeFEB/21</t>
+          <t>EIA Crude Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C841" t="inlineStr"/>
       <c r="D841" t="inlineStr">
         <is>
-          <t>-0.151M</t>
+          <t>4.633M</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -23220,20 +23216,20 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeFEB/21</t>
+          <t>EIA Gasoline Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C842" t="inlineStr"/>
       <c r="D842" t="inlineStr">
         <is>
-          <t>-0.961M</t>
+          <t>-0.151M</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
       <c r="F842" t="inlineStr"/>
       <c r="G842" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23245,13 +23241,13 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
+          <t>EIA Crude Oil Imports ChangeFEB/21</t>
         </is>
       </c>
       <c r="C843" t="inlineStr"/>
       <c r="D843" t="inlineStr">
         <is>
-          <t>1.472M</t>
+          <t>-0.961M</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -23270,11 +23266,15 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C844" t="inlineStr"/>
-      <c r="D844" t="inlineStr"/>
+      <c r="D844" t="inlineStr">
+        <is>
+          <t>1.472M</t>
+        </is>
+      </c>
       <c r="E844" t="inlineStr"/>
       <c r="F844" t="inlineStr"/>
       <c r="G844" t="inlineStr">
@@ -23291,11 +23291,15 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeFEB/21</t>
+          <t>EIA Distillate Fuel Production ChangeFEB/21</t>
         </is>
       </c>
       <c r="C845" t="inlineStr"/>
-      <c r="D845" t="inlineStr"/>
+      <c r="D845" t="inlineStr">
+        <is>
+          <t>0.18M</t>
+        </is>
+      </c>
       <c r="E845" t="inlineStr"/>
       <c r="F845" t="inlineStr"/>
       <c r="G845" t="inlineStr">
@@ -23312,11 +23316,15 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeFEB/21</t>
+          <t>EIA Distillate Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C846" t="inlineStr"/>
-      <c r="D846" t="inlineStr"/>
+      <c r="D846" t="inlineStr">
+        <is>
+          <t>-2.051M</t>
+        </is>
+      </c>
       <c r="E846" t="inlineStr"/>
       <c r="F846" t="inlineStr"/>
       <c r="G846" t="inlineStr">
@@ -23333,13 +23341,13 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
+          <t>EIA Gasoline Production ChangeFEB/21</t>
         </is>
       </c>
       <c r="C847" t="inlineStr"/>
       <c r="D847" t="inlineStr">
         <is>
-          <t>-0.343M</t>
+          <t>-0.156M</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -23358,11 +23366,15 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C848" t="inlineStr"/>
-      <c r="D848" t="inlineStr"/>
+      <c r="D848" t="inlineStr">
+        <is>
+          <t>-0.343M</t>
+        </is>
+      </c>
       <c r="E848" t="inlineStr"/>
       <c r="F848" t="inlineStr"/>
       <c r="G848" t="inlineStr">
@@ -23374,18 +23386,18 @@
     <row r="849">
       <c r="A849" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/21</t>
         </is>
       </c>
       <c r="C849" t="inlineStr"/>
       <c r="D849" t="inlineStr">
         <is>
-          <t>4.215%</t>
+          <t>-0.015M</t>
         </is>
       </c>
       <c r="E849" t="inlineStr"/>
@@ -23399,46 +23411,46 @@
     <row r="850">
       <c r="A850" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C850" t="inlineStr"/>
-      <c r="D850" t="inlineStr"/>
+      <c r="D850" t="inlineStr">
+        <is>
+          <t>4.215%</t>
+        </is>
+      </c>
       <c r="E850" t="inlineStr"/>
       <c r="F850" t="inlineStr"/>
       <c r="G850" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
+      <c r="D851" t="inlineStr"/>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23450,13 +23462,13 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C852" t="inlineStr"/>
       <c r="D852" t="inlineStr">
         <is>
-          <t>4.457%</t>
+          <t>0.098%</t>
         </is>
       </c>
       <c r="E852" t="inlineStr"/>
@@ -23468,28 +23480,24 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr"/>
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>11:30 PM</t>
+        </is>
+      </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>Building Permits FinalJAN</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C853" t="inlineStr"/>
       <c r="D853" t="inlineStr">
         <is>
-          <t>1.482M</t>
-        </is>
-      </c>
-      <c r="E853" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
-      <c r="F853" t="inlineStr">
-        <is>
-          <t>1.483M</t>
-        </is>
-      </c>
+          <t>4.457%</t>
+        </is>
+      </c>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
       <c r="G853" t="inlineStr">
         <is>
           <t>3</t>
@@ -23500,72 +23508,68 @@
       <c r="A854" t="inlineStr"/>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalJAN</t>
+          <t>Building Permits FinalJAN</t>
         </is>
       </c>
       <c r="C854" t="inlineStr"/>
       <c r="D854" t="inlineStr">
         <is>
+          <t>1.482M</t>
+        </is>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
+      <c r="F854" t="inlineStr">
+        <is>
+          <t>1.483M</t>
+        </is>
+      </c>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr"/>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalJAN</t>
+        </is>
+      </c>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr">
+        <is>
           <t>-0.7%</t>
         </is>
       </c>
-      <c r="E854" t="inlineStr"/>
-      <c r="F854" t="inlineStr">
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr">
         <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G854" t="inlineStr">
+      <c r="G855" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-    </row>
-    <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>Thursday February 27 2025</t>
-        </is>
-      </c>
-      <c r="B855" t="inlineStr"/>
-      <c r="C855" t="inlineStr"/>
-      <c r="D855" t="inlineStr"/>
-      <c r="E855" t="inlineStr"/>
-      <c r="F855" t="inlineStr"/>
-      <c r="G855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B856" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 27 2025</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr"/>
       <c r="C856" t="inlineStr"/>
-      <c r="D856" t="inlineStr">
-        <is>
-          <t>-2.2%</t>
-        </is>
-      </c>
-      <c r="E856" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F856" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="G856" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" t="inlineStr">
@@ -23575,23 +23579,23 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders MoMJAN</t>
         </is>
       </c>
       <c r="C857" t="inlineStr"/>
       <c r="D857" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>-2.2%</t>
         </is>
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>-0.4%</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -23608,24 +23612,28 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMJAN</t>
+          <t>GDP Growth Rate QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C858" t="inlineStr"/>
       <c r="D858" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E858" t="inlineStr"/>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="F858" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G858" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -23637,23 +23645,19 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders Ex Transp MoMJAN</t>
         </is>
       </c>
       <c r="C859" t="inlineStr"/>
       <c r="D859" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E859" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E859" t="inlineStr"/>
       <c r="F859" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -23670,19 +23674,23 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsFEB/22</t>
+          <t>GDP Price Index QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C860" t="inlineStr"/>
       <c r="D860" t="inlineStr">
         <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E860" t="inlineStr"/>
+          <t>1.9%</t>
+        </is>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>2.2%</t>
+        </is>
+      </c>
       <c r="F860" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G860" t="inlineStr">
@@ -23699,24 +23707,24 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsFEB/15</t>
+          <t>Initial Jobless ClaimsFEB/22</t>
         </is>
       </c>
       <c r="C861" t="inlineStr"/>
       <c r="D861" t="inlineStr">
         <is>
-          <t>1869K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E861" t="inlineStr"/>
       <c r="F861" t="inlineStr">
         <is>
-          <t>1874.0K</t>
+          <t>225.0K</t>
         </is>
       </c>
       <c r="G861" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -23728,23 +23736,19 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ 2nd EstQ4</t>
+          <t>Continuing Jobless ClaimsFEB/15</t>
         </is>
       </c>
       <c r="C862" t="inlineStr"/>
       <c r="D862" t="inlineStr">
         <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E862" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+          <t>1869K</t>
+        </is>
+      </c>
+      <c r="E862" t="inlineStr"/>
       <c r="F862" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>1874.0K</t>
         </is>
       </c>
       <c r="G862" t="inlineStr">
@@ -23761,19 +23765,23 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMJAN</t>
+          <t>Core PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C863" t="inlineStr"/>
       <c r="D863" t="inlineStr">
         <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="E863" t="inlineStr"/>
+          <t>2.2%</t>
+        </is>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>2.5%</t>
+        </is>
+      </c>
       <c r="F863" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G863" t="inlineStr">
@@ -23790,23 +23798,19 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ 2nd EstQ4</t>
+          <t>Durable Goods Orders ex Defense MoMJAN</t>
         </is>
       </c>
       <c r="C864" t="inlineStr"/>
       <c r="D864" t="inlineStr">
         <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E864" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+          <t>-2.4%</t>
+        </is>
+      </c>
+      <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -23823,19 +23827,23 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageFEB/22</t>
+          <t>GDP Sales QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C865" t="inlineStr"/>
       <c r="D865" t="inlineStr">
         <is>
-          <t>215.25K</t>
-        </is>
-      </c>
-      <c r="E865" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="F865" t="inlineStr">
         <is>
-          <t>220.0K</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="G865" t="inlineStr">
@@ -23852,19 +23860,19 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/22</t>
         </is>
       </c>
       <c r="C866" t="inlineStr"/>
       <c r="D866" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>215.25K</t>
         </is>
       </c>
       <c r="E866" t="inlineStr"/>
       <c r="F866" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>220.0K</t>
         </is>
       </c>
       <c r="G866" t="inlineStr">
@@ -23881,23 +23889,19 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ 2nd EstQ4</t>
+          <t>Non Defense Goods Orders Ex AirJAN</t>
         </is>
       </c>
       <c r="C867" t="inlineStr"/>
       <c r="D867" t="inlineStr">
         <is>
-          <t>1.5%</t>
-        </is>
-      </c>
-      <c r="E867" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E867" t="inlineStr"/>
       <c r="F867" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G867" t="inlineStr">
@@ -23914,23 +23918,23 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
+          <t>PCE Prices QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C868" t="inlineStr"/>
       <c r="D868" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1.5%</t>
         </is>
       </c>
       <c r="E868" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="F868" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="G868" t="inlineStr">
@@ -23942,21 +23946,33 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>Fed Barr Speech</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ4</t>
         </is>
       </c>
       <c r="C869" t="inlineStr"/>
-      <c r="D869" t="inlineStr"/>
-      <c r="E869" t="inlineStr"/>
-      <c r="F869" t="inlineStr"/>
+      <c r="D869" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F869" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G869" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -23968,21 +23984,13 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMJAN</t>
+          <t>Fed Barr Speech</t>
         </is>
       </c>
       <c r="C870" t="inlineStr"/>
-      <c r="D870" t="inlineStr">
-        <is>
-          <t>-5.5%</t>
-        </is>
-      </c>
+      <c r="D870" t="inlineStr"/>
       <c r="E870" t="inlineStr"/>
-      <c r="F870" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F870" t="inlineStr"/>
       <c r="G870" t="inlineStr">
         <is>
           <t>2</t>
@@ -23997,19 +24005,19 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYJAN</t>
+          <t>Pending Home Sales MoMJAN</t>
         </is>
       </c>
       <c r="C871" t="inlineStr"/>
       <c r="D871" t="inlineStr">
         <is>
-          <t>-5.0%</t>
+          <t>-5.5%</t>
         </is>
       </c>
       <c r="E871" t="inlineStr"/>
       <c r="F871" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -24021,21 +24029,29 @@
     <row r="872">
       <c r="A872" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
+          <t>Pending Home Sales YoYJAN</t>
         </is>
       </c>
       <c r="C872" t="inlineStr"/>
-      <c r="D872" t="inlineStr"/>
+      <c r="D872" t="inlineStr">
+        <is>
+          <t>-5.0%</t>
+        </is>
+      </c>
       <c r="E872" t="inlineStr"/>
-      <c r="F872" t="inlineStr"/>
+      <c r="F872" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="G872" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24047,16 +24063,16 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/21</t>
         </is>
       </c>
       <c r="C873" t="inlineStr"/>
-      <c r="D873" t="inlineStr"/>
-      <c r="E873" t="inlineStr">
-        <is>
-          <t>$50 million</t>
-        </is>
-      </c>
+      <c r="D873" t="inlineStr">
+        <is>
+          <t>-196Bcf</t>
+        </is>
+      </c>
+      <c r="E873" t="inlineStr"/>
       <c r="F873" t="inlineStr"/>
       <c r="G873" t="inlineStr">
         <is>
@@ -24067,26 +24083,22 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Kansas Fed Composite IndexFEB</t>
+          <t>NY Fed Treasury Purchases 4 to 6 yrs</t>
         </is>
       </c>
       <c r="C874" t="inlineStr"/>
-      <c r="D874" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="E874" t="inlineStr"/>
-      <c r="F874" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
-      </c>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>$50 million</t>
+        </is>
+      </c>
+      <c r="F874" t="inlineStr"/>
       <c r="G874" t="inlineStr">
         <is>
           <t>3</t>
@@ -24101,13 +24113,13 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>Kansas Fed Manufacturing IndexFEB</t>
+          <t>Kansas Fed Composite IndexFEB</t>
         </is>
       </c>
       <c r="C875" t="inlineStr"/>
       <c r="D875" t="inlineStr">
         <is>
-          <t>-9</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="E875" t="inlineStr"/>
@@ -24125,18 +24137,26 @@
     <row r="876">
       <c r="A876" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>Kansas Fed Manufacturing IndexFEB</t>
         </is>
       </c>
       <c r="C876" t="inlineStr"/>
-      <c r="D876" t="inlineStr"/>
+      <c r="D876" t="inlineStr">
+        <is>
+          <t>-9</t>
+        </is>
+      </c>
       <c r="E876" t="inlineStr"/>
-      <c r="F876" t="inlineStr"/>
+      <c r="F876" t="inlineStr">
+        <is>
+          <t>-3</t>
+        </is>
+      </c>
       <c r="G876" t="inlineStr">
         <is>
           <t>3</t>
@@ -24151,11 +24171,15 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C877" t="inlineStr"/>
-      <c r="D877" t="inlineStr"/>
+      <c r="D877" t="inlineStr">
+        <is>
+          <t>4.245%</t>
+        </is>
+      </c>
       <c r="E877" t="inlineStr"/>
       <c r="F877" t="inlineStr"/>
       <c r="G877" t="inlineStr">
@@ -24167,46 +24191,46 @@
     <row r="878">
       <c r="A878" t="inlineStr">
         <is>
-          <t>10:15 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C878" t="inlineStr"/>
-      <c r="D878" t="inlineStr"/>
+      <c r="D878" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E878" t="inlineStr"/>
       <c r="F878" t="inlineStr"/>
       <c r="G878" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:15 PM</t>
         </is>
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateFEB/27</t>
+          <t>Fed Bowman Speech</t>
         </is>
       </c>
       <c r="C879" t="inlineStr"/>
-      <c r="D879" t="inlineStr">
-        <is>
-          <t>6.04%</t>
-        </is>
-      </c>
+      <c r="D879" t="inlineStr"/>
       <c r="E879" t="inlineStr"/>
       <c r="F879" t="inlineStr"/>
       <c r="G879" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24218,13 +24242,13 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateFEB/27</t>
+          <t>15-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C880" t="inlineStr"/>
       <c r="D880" t="inlineStr">
         <is>
-          <t>6.85%</t>
+          <t>6.04%</t>
         </is>
       </c>
       <c r="E880" t="inlineStr"/>
@@ -24238,130 +24262,126 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>11:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>30-Year Mortgage RateFEB/27</t>
         </is>
       </c>
       <c r="C881" t="inlineStr"/>
-      <c r="D881" t="inlineStr"/>
+      <c r="D881" t="inlineStr">
+        <is>
+          <t>6.85%</t>
+        </is>
+      </c>
       <c r="E881" t="inlineStr"/>
       <c r="F881" t="inlineStr"/>
       <c r="G881" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="inlineStr">
         <is>
-          <t>Friday February 28 2025</t>
-        </is>
-      </c>
-      <c r="B882" t="inlineStr"/>
+          <t>11:45 PM</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>Fed Hammack Speech</t>
+        </is>
+      </c>
       <c r="C882" t="inlineStr"/>
       <c r="D882" t="inlineStr"/>
       <c r="E882" t="inlineStr"/>
       <c r="F882" t="inlineStr"/>
-      <c r="G882" t="inlineStr"/>
+      <c r="G882" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="883">
       <c r="A883" t="inlineStr">
         <is>
-          <t>01:45 AM</t>
-        </is>
-      </c>
-      <c r="B883" t="inlineStr">
-        <is>
-          <t>Fed Harker Speech</t>
-        </is>
-      </c>
+          <t>Friday February 28 2025</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr"/>
       <c r="C883" t="inlineStr"/>
       <c r="D883" t="inlineStr"/>
       <c r="E883" t="inlineStr"/>
       <c r="F883" t="inlineStr"/>
-      <c r="G883" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>01:45 AM</t>
         </is>
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/26</t>
+          <t>Fed Harker Speech</t>
         </is>
       </c>
       <c r="C884" t="inlineStr"/>
-      <c r="D884" t="inlineStr">
-        <is>
-          <t>$6.78T</t>
-        </is>
-      </c>
+      <c r="D884" t="inlineStr"/>
       <c r="E884" t="inlineStr"/>
       <c r="F884" t="inlineStr"/>
       <c r="G884" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>Fed Balance SheetFEB/26</t>
         </is>
       </c>
       <c r="C885" t="inlineStr"/>
-      <c r="D885" t="inlineStr"/>
+      <c r="D885" t="inlineStr">
+        <is>
+          <t>$6.78T</t>
+        </is>
+      </c>
       <c r="E885" t="inlineStr"/>
       <c r="F885" t="inlineStr"/>
       <c r="G885" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMJAN</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C886" t="inlineStr"/>
-      <c r="D886" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D886" t="inlineStr"/>
       <c r="E886" t="inlineStr"/>
-      <c r="F886" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F886" t="inlineStr"/>
       <c r="G886" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24373,19 +24393,19 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>Personal Income MoMJAN</t>
+          <t>Core PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C887" t="inlineStr"/>
       <c r="D887" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E887" t="inlineStr"/>
       <c r="F887" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G887" t="inlineStr">
@@ -24402,23 +24422,19 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>Personal Spending MoMJAN</t>
+          <t>Personal Income MoMJAN</t>
         </is>
       </c>
       <c r="C888" t="inlineStr"/>
       <c r="D888" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E888" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E888" t="inlineStr"/>
       <c r="F888" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G888" t="inlineStr">
@@ -24435,24 +24451,28 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvJAN</t>
+          <t>Personal Spending MoMJAN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr"/>
       <c r="D889" t="inlineStr">
         <is>
-          <t>$-122.11B</t>
-        </is>
-      </c>
-      <c r="E889" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>$ -126.0B</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -24464,19 +24484,19 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMJAN</t>
+          <t>Goods Trade Balance AdvJAN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr"/>
       <c r="D890" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$-122.11B</t>
         </is>
       </c>
       <c r="E890" t="inlineStr"/>
       <c r="F890" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ -126.0B</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -24493,19 +24513,19 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYJAN</t>
+          <t>PCE Price Index MoMJAN</t>
         </is>
       </c>
       <c r="C891" t="inlineStr"/>
       <c r="D891" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E891" t="inlineStr"/>
       <c r="F891" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G891" t="inlineStr">
@@ -24522,19 +24542,19 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
+          <t>PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C892" t="inlineStr"/>
       <c r="D892" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E892" t="inlineStr"/>
       <c r="F892" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G892" t="inlineStr">
@@ -24551,19 +24571,19 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvJAN</t>
+          <t>Retail Inventories Ex Autos MoM AdvJAN</t>
         </is>
       </c>
       <c r="C893" t="inlineStr"/>
       <c r="D893" t="inlineStr">
         <is>
-          <t>-0.5%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="E893" t="inlineStr"/>
       <c r="F893" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G893" t="inlineStr">
@@ -24580,74 +24600,82 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYJAN</t>
+          <t>Wholesale Inventories MoM AdvJAN</t>
         </is>
       </c>
       <c r="C894" t="inlineStr"/>
       <c r="D894" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.5%</t>
         </is>
       </c>
       <c r="E894" t="inlineStr"/>
       <c r="F894" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G894" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="inlineStr">
         <is>
-          <t>08:15 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>Chicago PMIFEB</t>
+          <t>Core PCE Price Index YoYJAN</t>
         </is>
       </c>
       <c r="C895" t="inlineStr"/>
       <c r="D895" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E895" t="inlineStr"/>
       <c r="F895" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>2.7%</t>
         </is>
       </c>
       <c r="G895" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>08:15 PM</t>
         </is>
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/28</t>
+          <t>Chicago PMIFEB</t>
         </is>
       </c>
       <c r="C896" t="inlineStr"/>
-      <c r="D896" t="inlineStr"/>
+      <c r="D896" t="inlineStr">
+        <is>
+          <t>39.5</t>
+        </is>
+      </c>
       <c r="E896" t="inlineStr"/>
-      <c r="F896" t="inlineStr"/>
+      <c r="F896" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
       <c r="G896" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24659,7 +24687,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/28</t>
+          <t>Baker Hughes Oil Rig CountFEB/28</t>
         </is>
       </c>
       <c r="C897" t="inlineStr"/>
@@ -24675,20 +24703,28 @@
     <row r="898">
       <c r="A898" t="inlineStr">
         <is>
-          <t>Saturday March 01 2025</t>
-        </is>
-      </c>
-      <c r="B898" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>Baker Hughes Total Rigs CountFEB/28</t>
+        </is>
+      </c>
       <c r="C898" t="inlineStr"/>
       <c r="D898" t="inlineStr"/>
       <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
-      <c r="G898" t="inlineStr"/>
+      <c r="G898" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="899">
       <c r="A899" t="inlineStr">
         <is>
-          <t>Monday March 03 2025</t>
+          <t>Saturday March 01 2025</t>
         </is>
       </c>
       <c r="B899" t="inlineStr"/>
@@ -24698,6 +24734,19 @@
       <c r="F899" t="inlineStr"/>
       <c r="G899" t="inlineStr"/>
     </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>Monday March 03 2025</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr"/>
+      <c r="C900" t="inlineStr"/>
+      <c r="D900" t="inlineStr"/>
+      <c r="E900" t="inlineStr"/>
+      <c r="F900" t="inlineStr"/>
+      <c r="G900" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -23595,7 +23595,7 @@
       </c>
       <c r="F857" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>1.2%</t>
         </is>
       </c>
       <c r="G857" t="inlineStr">
@@ -23654,10 +23654,14 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E859" t="inlineStr"/>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F859" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G859" t="inlineStr">
@@ -23716,7 +23720,11 @@
           <t>219K</t>
         </is>
       </c>
-      <c r="E861" t="inlineStr"/>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>220K</t>
+        </is>
+      </c>
       <c r="F861" t="inlineStr">
         <is>
           <t>225.0K</t>
@@ -23810,7 +23818,7 @@
       <c r="E864" t="inlineStr"/>
       <c r="F864" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G864" t="inlineStr">
@@ -24014,10 +24022,14 @@
           <t>-5.5%</t>
         </is>
       </c>
-      <c r="E871" t="inlineStr"/>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G871" t="inlineStr">
@@ -24431,7 +24443,11 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="E888" t="inlineStr"/>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F888" t="inlineStr">
         <is>
           <t>0.3%</t>
@@ -24467,7 +24483,7 @@
       </c>
       <c r="F889" t="inlineStr">
         <is>
-          <t>-0.3%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G889" t="inlineStr">

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G900"/>
+  <dimension ref="A1:G906"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21901,7 +21901,11 @@
           <t>S&amp;P Global Composite PMI FlashFEB</t>
         </is>
       </c>
-      <c r="C792" t="inlineStr"/>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>50.4</t>
+        </is>
+      </c>
       <c r="D792" t="inlineStr">
         <is>
           <t>52.7</t>
@@ -21930,7 +21934,11 @@
           <t>S&amp;P Global Manufacturing PMI FlashFEB</t>
         </is>
       </c>
-      <c r="C793" t="inlineStr"/>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
       <c r="D793" t="inlineStr">
         <is>
           <t>51.2</t>
@@ -21963,7 +21971,11 @@
           <t>S&amp;P Global Services PMI FlashFEB</t>
         </is>
       </c>
-      <c r="C794" t="inlineStr"/>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>49.7</t>
+        </is>
+      </c>
       <c r="D794" t="inlineStr">
         <is>
           <t>52.9</t>
@@ -21996,10 +22008,14 @@
           <t>Existing Home SalesJAN</t>
         </is>
       </c>
-      <c r="C795" t="inlineStr"/>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>4.08M</t>
+        </is>
+      </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>4.24M</t>
+          <t>4.29M</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -22029,10 +22045,14 @@
           <t>Existing Home Sales MoMJAN</t>
         </is>
       </c>
-      <c r="C796" t="inlineStr"/>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>-4.9%</t>
+        </is>
+      </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.9%</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -22058,7 +22078,11 @@
           <t>Michigan Consumer Sentiment FinalFEB</t>
         </is>
       </c>
-      <c r="C797" t="inlineStr"/>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>64.7</t>
+        </is>
+      </c>
       <c r="D797" t="inlineStr">
         <is>
           <t>71.1</t>
@@ -22091,7 +22115,11 @@
           <t>Michigan 5 Year Inflation Expectations FinalFEB</t>
         </is>
       </c>
-      <c r="C798" t="inlineStr"/>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="D798" t="inlineStr">
         <is>
           <t>3.2%</t>
@@ -22124,7 +22152,11 @@
           <t>Michigan Consumer Expectations FinalFEB</t>
         </is>
       </c>
-      <c r="C799" t="inlineStr"/>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
       <c r="D799" t="inlineStr">
         <is>
           <t>69.3</t>
@@ -22157,7 +22189,11 @@
           <t>Michigan Current Conditions FinalFEB</t>
         </is>
       </c>
-      <c r="C800" t="inlineStr"/>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>65.7</t>
+        </is>
+      </c>
       <c r="D800" t="inlineStr">
         <is>
           <t>74</t>
@@ -22190,7 +22226,11 @@
           <t>Michigan Inflation Expectations FinalFEB</t>
         </is>
       </c>
-      <c r="C801" t="inlineStr"/>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="D801" t="inlineStr">
         <is>
           <t>3.3%</t>
@@ -22539,10 +22579,14 @@
           <t>4.3%</t>
         </is>
       </c>
-      <c r="E816" t="inlineStr"/>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="F816" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="G816" t="inlineStr">
@@ -22597,7 +22641,11 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="E818" t="inlineStr"/>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F818" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -22717,7 +22765,11 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="E822" t="inlineStr"/>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
       <c r="F822" t="inlineStr">
         <is>
           <t>-1</t>
@@ -24763,6 +24815,184 @@
       <c r="F900" t="inlineStr"/>
       <c r="G900" t="inlineStr"/>
     </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>08:15 PM</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>S&amp;P Global Manufacturing PMI FinalFEB</t>
+        </is>
+      </c>
+      <c r="C901" t="inlineStr"/>
+      <c r="D901" t="inlineStr">
+        <is>
+          <t>51.2</t>
+        </is>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="F901" t="inlineStr">
+        <is>
+          <t>51.6</t>
+        </is>
+      </c>
+      <c r="G901" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PMIFEB</t>
+        </is>
+      </c>
+      <c r="C902" t="inlineStr"/>
+      <c r="D902" t="inlineStr">
+        <is>
+          <t>50.9</t>
+        </is>
+      </c>
+      <c r="E902" t="inlineStr"/>
+      <c r="F902" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G902" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing EmploymentFEB</t>
+        </is>
+      </c>
+      <c r="C903" t="inlineStr"/>
+      <c r="D903" t="inlineStr">
+        <is>
+          <t>50.3</t>
+        </is>
+      </c>
+      <c r="E903" t="inlineStr"/>
+      <c r="F903" t="inlineStr">
+        <is>
+          <t>50.6</t>
+        </is>
+      </c>
+      <c r="G903" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>Construction Spending MoMJAN</t>
+        </is>
+      </c>
+      <c r="C904" t="inlineStr"/>
+      <c r="D904" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E904" t="inlineStr"/>
+      <c r="F904" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="G904" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing New OrdersFEB</t>
+        </is>
+      </c>
+      <c r="C905" t="inlineStr"/>
+      <c r="D905" t="inlineStr">
+        <is>
+          <t>55.1</t>
+        </is>
+      </c>
+      <c r="E905" t="inlineStr"/>
+      <c r="F905" t="inlineStr">
+        <is>
+          <t>55.4</t>
+        </is>
+      </c>
+      <c r="G905" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>ISM Manufacturing PricesFEB</t>
+        </is>
+      </c>
+      <c r="C906" t="inlineStr"/>
+      <c r="D906" t="inlineStr">
+        <is>
+          <t>54.9</t>
+        </is>
+      </c>
+      <c r="E906" t="inlineStr"/>
+      <c r="F906" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G906" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -23488,46 +23488,46 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C851" t="inlineStr"/>
-      <c r="D851" t="inlineStr"/>
+      <c r="D851" t="inlineStr">
+        <is>
+          <t>0.098%</t>
+        </is>
+      </c>
       <c r="E851" t="inlineStr"/>
       <c r="F851" t="inlineStr"/>
       <c r="G851" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C852" t="inlineStr"/>
-      <c r="D852" t="inlineStr">
-        <is>
-          <t>0.098%</t>
-        </is>
-      </c>
+      <c r="D852" t="inlineStr"/>
       <c r="E852" t="inlineStr"/>
       <c r="F852" t="inlineStr"/>
       <c r="G852" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -24561,10 +24561,14 @@
           <t>$-122.11B</t>
         </is>
       </c>
-      <c r="E890" t="inlineStr"/>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>$-114.7B</t>
+        </is>
+      </c>
       <c r="F890" t="inlineStr">
         <is>
-          <t>$ -126.0B</t>
+          <t>$ -116.0B</t>
         </is>
       </c>
       <c r="G890" t="inlineStr">
@@ -24677,7 +24681,11 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="E894" t="inlineStr"/>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="F894" t="inlineStr">
         <is>
           <t>0.2%</t>
@@ -24735,7 +24743,11 @@
           <t>39.5</t>
         </is>
       </c>
-      <c r="E896" t="inlineStr"/>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>40.3</t>
+        </is>
+      </c>
       <c r="F896" t="inlineStr">
         <is>
           <t>42</t>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G906"/>
+  <dimension ref="A1:G908"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25005,6 +25005,48 @@
         </is>
       </c>
     </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C907" t="inlineStr"/>
+      <c r="D907" t="inlineStr"/>
+      <c r="E907" t="inlineStr"/>
+      <c r="F907" t="inlineStr"/>
+      <c r="G907" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>10:00 PM</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
+      <c r="C908" t="inlineStr"/>
+      <c r="D908" t="inlineStr"/>
+      <c r="E908" t="inlineStr"/>
+      <c r="F908" t="inlineStr"/>
+      <c r="G908" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-03.xlsx
@@ -22305,7 +22305,11 @@
           <t>Baker Hughes Oil Rig CountFEB/21</t>
         </is>
       </c>
-      <c r="C804" t="inlineStr"/>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
       <c r="D804" t="inlineStr">
         <is>
           <t>481</t>
@@ -22330,7 +22334,11 @@
           <t>Baker Hughes Total Rigs CountFEB/21</t>
         </is>
       </c>
-      <c r="C805" t="inlineStr"/>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="D805" t="inlineStr">
         <is>
           <t>588</t>
@@ -24771,7 +24779,11 @@
         </is>
       </c>
       <c r="C897" t="inlineStr"/>
-      <c r="D897" t="inlineStr"/>
+      <c r="D897" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
       <c r="E897" t="inlineStr"/>
       <c r="F897" t="inlineStr"/>
       <c r="G897" t="inlineStr">
@@ -24792,7 +24804,11 @@
         </is>
       </c>
       <c r="C898" t="inlineStr"/>
-      <c r="D898" t="inlineStr"/>
+      <c r="D898" t="inlineStr">
+        <is>
+          <t>592</t>
+        </is>
+      </c>
       <c r="E898" t="inlineStr"/>
       <c r="F898" t="inlineStr"/>
       <c r="G898" t="inlineStr">
